--- a/Gaming/Stocks/statistics_pattern.xlsx
+++ b/Gaming/Stocks/statistics_pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AFE77100ABBB1A1D723469A18DFC6E565030C5C8" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{5188154C-588D-476F-9ABF-EF9F80121515}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AFE77100ABBB1A1D723469A18DFC6E565030C5C8" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{02136846-53AF-405B-844D-1E0957F2EF71}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="115">
   <si>
     <t>Number</t>
   </si>
@@ -771,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR61"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,31 +993,31 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="2">
-        <v>43158</v>
+        <v>43171</v>
       </c>
       <c r="I3" s="2">
-        <v>43188</v>
+        <v>43230</v>
       </c>
       <c r="J3" t="s">
         <v>76</v>
@@ -1056,30 +1056,30 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>-0.3523</v>
+        <v>-0.15859999999999999</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
-        <v>78</v>
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="X3">
+        <v>-0.49840000000000001</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -1091,10 +1091,10 @@
         <v>75</v>
       </c>
       <c r="H4" s="2">
-        <v>43158</v>
+        <v>43125</v>
       </c>
       <c r="I4" s="2">
-        <v>43188</v>
+        <v>43171</v>
       </c>
       <c r="J4" t="s">
         <v>76</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>-0.3523</v>
+        <v>-0.44390000000000002</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1142,36 +1142,36 @@
         <v>78</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>75</v>
       </c>
       <c r="H5" s="2">
+        <v>43116</v>
+      </c>
+      <c r="I5" s="2">
         <v>43171</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43230</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
@@ -1210,45 +1210,45 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>-0.15859999999999999</v>
+        <v>-0.40870000000000001</v>
       </c>
       <c r="W5">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="X5">
-        <v>-0.49840000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
       </c>
       <c r="Y5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="2">
-        <v>43171</v>
+        <v>43116</v>
       </c>
       <c r="I6" s="2">
-        <v>43230</v>
+        <v>43186</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
@@ -1287,30 +1287,30 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>-0.15859999999999999</v>
+        <v>-0.3473</v>
       </c>
       <c r="W6">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="X6">
-        <v>-0.49840000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
@@ -1322,10 +1322,10 @@
         <v>75</v>
       </c>
       <c r="H7" s="2">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="I7" s="2">
-        <v>43171</v>
+        <v>43186</v>
       </c>
       <c r="J7" t="s">
         <v>76</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>-0.44390000000000002</v>
+        <v>-0.36759999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1373,36 +1373,36 @@
         <v>78</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
         <v>75</v>
       </c>
       <c r="H8" s="2">
-        <v>43125</v>
+        <v>43033</v>
       </c>
       <c r="I8" s="2">
-        <v>43171</v>
+        <v>43126</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -1441,45 +1441,45 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>-0.44390000000000002</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>78</v>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="X8">
+        <v>-3.92</v>
       </c>
       <c r="Y8">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="2">
-        <v>43125</v>
+        <v>43067</v>
       </c>
       <c r="I9" s="2">
-        <v>43171</v>
+        <v>43084</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -1518,45 +1518,45 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>-0.44390000000000002</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
+        <v>-1.5699999999999999E-2</v>
+      </c>
+      <c r="X9">
+        <v>-1.3248</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="2">
-        <v>43116</v>
+        <v>43126</v>
       </c>
       <c r="I10" s="2">
-        <v>43171</v>
+        <v>43157</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
@@ -1595,30 +1595,30 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>-0.40870000000000001</v>
+        <v>-0.2112</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>78</v>
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="X10">
+        <v>-1.641</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
@@ -1630,10 +1630,10 @@
         <v>75</v>
       </c>
       <c r="H11" s="2">
-        <v>43116</v>
+        <v>43129</v>
       </c>
       <c r="I11" s="2">
-        <v>43186</v>
+        <v>43165</v>
       </c>
       <c r="J11" t="s">
         <v>76</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>-0.3473</v>
+        <v>-0.49280000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1681,21 +1681,21 @@
         <v>78</v>
       </c>
       <c r="Y11">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>71</v>
@@ -1707,7 +1707,7 @@
         <v>75</v>
       </c>
       <c r="H12" s="2">
-        <v>43124</v>
+        <v>43129</v>
       </c>
       <c r="I12" s="2">
         <v>43186</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>-0.36759999999999998</v>
+        <v>-0.36009999999999998</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1758,36 +1758,36 @@
         <v>78</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
         <v>75</v>
       </c>
       <c r="H13" s="2">
-        <v>43116</v>
+        <v>43171</v>
       </c>
       <c r="I13" s="2">
-        <v>43171</v>
+        <v>43208</v>
       </c>
       <c r="J13" t="s">
         <v>76</v>
@@ -1826,30 +1826,30 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>-0.40870000000000001</v>
+        <v>-0.1081</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>78</v>
+        <v>0.1971</v>
+      </c>
+      <c r="X13">
+        <v>-0.54849999999999999</v>
       </c>
       <c r="Y13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
@@ -1861,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="H14" s="2">
-        <v>43116</v>
+        <v>43151</v>
       </c>
       <c r="I14" s="2">
         <v>43186</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>-0.3473</v>
+        <v>-0.50839999999999996</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1912,21 +1912,21 @@
         <v>78</v>
       </c>
       <c r="Y14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>71</v>
@@ -1938,10 +1938,10 @@
         <v>75</v>
       </c>
       <c r="H15" s="2">
-        <v>43124</v>
+        <v>43117</v>
       </c>
       <c r="I15" s="2">
-        <v>43186</v>
+        <v>43195</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>-0.36759999999999998</v>
+        <v>-0.317</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1989,36 +1989,36 @@
         <v>78</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>75</v>
       </c>
       <c r="H16" s="2">
-        <v>43116</v>
+        <v>43158</v>
       </c>
       <c r="I16" s="2">
-        <v>43171</v>
+        <v>43214</v>
       </c>
       <c r="J16" t="s">
         <v>76</v>
@@ -2057,45 +2057,45 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>-0.40870000000000001</v>
+        <v>-0.16489999999999999</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>78</v>
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="X16">
+        <v>-0.70409999999999995</v>
       </c>
       <c r="Y16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="2">
-        <v>43116</v>
+        <v>43147</v>
       </c>
       <c r="I17" s="2">
-        <v>43186</v>
+        <v>43207</v>
       </c>
       <c r="J17" t="s">
         <v>76</v>
@@ -2134,45 +2134,45 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>-0.3473</v>
+        <v>-0.1077</v>
       </c>
       <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>78</v>
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="X17">
+        <v>-0.61019999999999996</v>
       </c>
       <c r="Y17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
       </c>
       <c r="H18" s="2">
-        <v>43124</v>
+        <v>43186</v>
       </c>
       <c r="I18" s="2">
-        <v>43186</v>
+        <v>43207</v>
       </c>
       <c r="J18" t="s">
         <v>76</v>
@@ -2211,45 +2211,45 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>-0.36759999999999998</v>
+        <v>-0.1593</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>78</v>
+        <v>0.17</v>
+      </c>
+      <c r="X18">
+        <v>-0.93710000000000004</v>
       </c>
       <c r="Y18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
         <v>75</v>
       </c>
       <c r="H19" s="2">
-        <v>43033</v>
+        <v>43159</v>
       </c>
       <c r="I19" s="2">
-        <v>43126</v>
+        <v>43195</v>
       </c>
       <c r="J19" t="s">
         <v>76</v>
@@ -2288,45 +2288,45 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>2.9399999999999999E-2</v>
+        <v>-0.47599999999999998</v>
       </c>
       <c r="W19">
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="X19">
-        <v>-3.92</v>
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>78</v>
       </c>
       <c r="Y19">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="2">
-        <v>43067</v>
+        <v>43073</v>
       </c>
       <c r="I20" s="2">
-        <v>43084</v>
+        <v>43089</v>
       </c>
       <c r="J20" t="s">
         <v>76</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>2.0799999999999999E-2</v>
+        <v>-0.57330000000000003</v>
       </c>
       <c r="W20">
-        <v>-1.5699999999999999E-2</v>
-      </c>
-      <c r="X20">
-        <v>-1.3248</v>
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>78</v>
       </c>
       <c r="Y20">
         <v>5</v>
@@ -2379,31 +2379,31 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
         <v>75</v>
       </c>
       <c r="H21" s="2">
-        <v>43126</v>
+        <v>43207</v>
       </c>
       <c r="I21" s="2">
-        <v>43157</v>
+        <v>43227</v>
       </c>
       <c r="J21" t="s">
         <v>76</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>-0.2112</v>
+        <v>-0.33429999999999999</v>
       </c>
       <c r="W21">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="X21">
-        <v>-1.641</v>
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>78</v>
       </c>
       <c r="Y21">
         <v>5</v>
@@ -2456,31 +2456,31 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>75</v>
       </c>
       <c r="H22" s="2">
-        <v>43126</v>
+        <v>43158</v>
       </c>
       <c r="I22" s="2">
-        <v>43157</v>
+        <v>43208</v>
       </c>
       <c r="J22" t="s">
         <v>76</v>
@@ -2519,30 +2519,30 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>-0.2112</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="W22">
-        <v>0.12870000000000001</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="X22">
-        <v>-1.641</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="Y22">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
         <v>71</v>
@@ -2557,7 +2557,7 @@
         <v>43129</v>
       </c>
       <c r="I23" s="2">
-        <v>43165</v>
+        <v>43208</v>
       </c>
       <c r="J23" t="s">
         <v>76</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>-0.49280000000000002</v>
+        <v>-0.38950000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2605,21 +2605,21 @@
         <v>78</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
@@ -2634,7 +2634,7 @@
         <v>43129</v>
       </c>
       <c r="I24" s="2">
-        <v>43186</v>
+        <v>43224</v>
       </c>
       <c r="J24" t="s">
         <v>76</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>-0.36009999999999998</v>
+        <v>-0.3266</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2682,21 +2682,21 @@
         <v>78</v>
       </c>
       <c r="Y24">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
@@ -2708,10 +2708,10 @@
         <v>75</v>
       </c>
       <c r="H25" s="2">
-        <v>43129</v>
+        <v>43147</v>
       </c>
       <c r="I25" s="2">
-        <v>43165</v>
+        <v>43224</v>
       </c>
       <c r="J25" t="s">
         <v>76</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>-0.49280000000000002</v>
+        <v>-0.31769999999999998</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2759,2783 +2759,12 @@
         <v>78</v>
       </c>
       <c r="Y25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I26" s="2">
-        <v>43186</v>
-      </c>
-      <c r="J26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0.01</v>
-      </c>
-      <c r="O26">
-        <v>0.01</v>
-      </c>
-      <c r="P26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>-0.36009999999999998</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I27" s="2">
-        <v>43165</v>
-      </c>
-      <c r="J27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0.01</v>
-      </c>
-      <c r="O27">
-        <v>0.01</v>
-      </c>
-      <c r="P27" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>-0.49280000000000002</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I28" s="2">
-        <v>43186</v>
-      </c>
-      <c r="J28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0.01</v>
-      </c>
-      <c r="O28">
-        <v>0.01</v>
-      </c>
-      <c r="P28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>-0.36009999999999998</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43171</v>
-      </c>
-      <c r="I29" s="2">
-        <v>43208</v>
-      </c>
-      <c r="J29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0.01</v>
-      </c>
-      <c r="O29">
-        <v>0.01</v>
-      </c>
-      <c r="P29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" t="b">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>-0.1081</v>
-      </c>
-      <c r="W29">
-        <v>0.1971</v>
-      </c>
-      <c r="X29">
-        <v>-0.54849999999999999</v>
-      </c>
-      <c r="Y29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="2">
-        <v>43171</v>
-      </c>
-      <c r="I30" s="2">
-        <v>43208</v>
-      </c>
-      <c r="J30" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0.01</v>
-      </c>
-      <c r="O30">
-        <v>0.01</v>
-      </c>
-      <c r="P30" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>-0.1081</v>
-      </c>
-      <c r="W30">
-        <v>0.1971</v>
-      </c>
-      <c r="X30">
-        <v>-0.54849999999999999</v>
-      </c>
-      <c r="Y30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="2">
-        <v>43151</v>
-      </c>
-      <c r="I31" s="2">
-        <v>43186</v>
-      </c>
-      <c r="J31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0.01</v>
-      </c>
-      <c r="O31">
-        <v>0.01</v>
-      </c>
-      <c r="P31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>-0.50839999999999996</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43151</v>
-      </c>
-      <c r="I32" s="2">
-        <v>43186</v>
-      </c>
-      <c r="J32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0.01</v>
-      </c>
-      <c r="O32">
-        <v>0.01</v>
-      </c>
-      <c r="P32" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q32" t="b">
-        <v>0</v>
-      </c>
-      <c r="R32" t="b">
-        <v>0</v>
-      </c>
-      <c r="S32" t="b">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>-0.50839999999999996</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43151</v>
-      </c>
-      <c r="I33" s="2">
-        <v>43186</v>
-      </c>
-      <c r="J33" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0.01</v>
-      </c>
-      <c r="O33">
-        <v>0.01</v>
-      </c>
-      <c r="P33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q33" t="b">
-        <v>0</v>
-      </c>
-      <c r="R33" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>-0.50839999999999996</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="2">
-        <v>43117</v>
-      </c>
-      <c r="I34" s="2">
-        <v>43195</v>
-      </c>
-      <c r="J34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0.01</v>
-      </c>
-      <c r="O34">
-        <v>0.01</v>
-      </c>
-      <c r="P34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q34" t="b">
-        <v>0</v>
-      </c>
-      <c r="R34" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>-0.317</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="2">
-        <v>43117</v>
-      </c>
-      <c r="I35" s="2">
-        <v>43195</v>
-      </c>
-      <c r="J35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s">
-        <v>76</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0.01</v>
-      </c>
-      <c r="O35">
-        <v>0.01</v>
-      </c>
-      <c r="P35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" t="b">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>-0.317</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="2">
-        <v>43117</v>
-      </c>
-      <c r="I36" s="2">
-        <v>43195</v>
-      </c>
-      <c r="J36" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" t="s">
-        <v>76</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0.01</v>
-      </c>
-      <c r="O36">
-        <v>0.01</v>
-      </c>
-      <c r="P36" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q36" t="b">
-        <v>0</v>
-      </c>
-      <c r="R36" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36" t="b">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>-0.317</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="2">
-        <v>43158</v>
-      </c>
-      <c r="I37" s="2">
-        <v>43214</v>
-      </c>
-      <c r="J37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0.01</v>
-      </c>
-      <c r="O37">
-        <v>0.01</v>
-      </c>
-      <c r="P37" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q37" t="b">
-        <v>0</v>
-      </c>
-      <c r="R37" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37" t="b">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>-0.16489999999999999</v>
-      </c>
-      <c r="W37">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="X37">
-        <v>-0.70409999999999995</v>
-      </c>
-      <c r="Y37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43158</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43214</v>
-      </c>
-      <c r="J38" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38" t="s">
-        <v>76</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0.01</v>
-      </c>
-      <c r="O38">
-        <v>0.01</v>
-      </c>
-      <c r="P38" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q38" t="b">
-        <v>0</v>
-      </c>
-      <c r="R38" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38" t="b">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>-0.16489999999999999</v>
-      </c>
-      <c r="W38">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="X38">
-        <v>-0.70409999999999995</v>
-      </c>
-      <c r="Y38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="2">
-        <v>43147</v>
-      </c>
-      <c r="I39" s="2">
-        <v>43207</v>
-      </c>
-      <c r="J39" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39" t="s">
-        <v>76</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0.01</v>
-      </c>
-      <c r="O39">
-        <v>0.01</v>
-      </c>
-      <c r="P39" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" t="b">
-        <v>0</v>
-      </c>
-      <c r="S39" t="b">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>-0.1077</v>
-      </c>
-      <c r="W39">
-        <v>0.17649999999999999</v>
-      </c>
-      <c r="X39">
-        <v>-0.61019999999999996</v>
-      </c>
-      <c r="Y39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="2">
-        <v>43147</v>
-      </c>
-      <c r="I40" s="2">
-        <v>43207</v>
-      </c>
-      <c r="J40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" t="s">
-        <v>76</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.01</v>
-      </c>
-      <c r="O40">
-        <v>0.01</v>
-      </c>
-      <c r="P40" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R40" t="b">
-        <v>0</v>
-      </c>
-      <c r="S40" t="b">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>-0.1077</v>
-      </c>
-      <c r="W40">
-        <v>0.17649999999999999</v>
-      </c>
-      <c r="X40">
-        <v>-0.61019999999999996</v>
-      </c>
-      <c r="Y40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="2">
-        <v>43186</v>
-      </c>
-      <c r="I41" s="2">
-        <v>43207</v>
-      </c>
-      <c r="J41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0.01</v>
-      </c>
-      <c r="O41">
-        <v>0.01</v>
-      </c>
-      <c r="P41" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>0</v>
-      </c>
-      <c r="R41" t="b">
-        <v>0</v>
-      </c>
-      <c r="S41" t="b">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>-0.1593</v>
-      </c>
-      <c r="W41">
-        <v>0.17</v>
-      </c>
-      <c r="X41">
-        <v>-0.93710000000000004</v>
-      </c>
-      <c r="Y41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>26</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="2">
-        <v>43186</v>
-      </c>
-      <c r="I42" s="2">
-        <v>43207</v>
-      </c>
-      <c r="J42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K42" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0.01</v>
-      </c>
-      <c r="O42">
-        <v>0.01</v>
-      </c>
-      <c r="P42" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>0</v>
-      </c>
-      <c r="R42" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42" t="b">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>-0.1593</v>
-      </c>
-      <c r="W42">
-        <v>0.17</v>
-      </c>
-      <c r="X42">
-        <v>-0.93710000000000004</v>
-      </c>
-      <c r="Y42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="2">
-        <v>43159</v>
-      </c>
-      <c r="I43" s="2">
-        <v>43195</v>
-      </c>
-      <c r="J43" t="s">
-        <v>76</v>
-      </c>
-      <c r="K43" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0.01</v>
-      </c>
-      <c r="O43">
-        <v>0.01</v>
-      </c>
-      <c r="P43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-      <c r="R43" t="b">
-        <v>0</v>
-      </c>
-      <c r="S43" t="b">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43159</v>
-      </c>
-      <c r="I44" s="2">
-        <v>43195</v>
-      </c>
-      <c r="J44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K44" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0.01</v>
-      </c>
-      <c r="O44">
-        <v>0.01</v>
-      </c>
-      <c r="P44" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-      <c r="R44" t="b">
-        <v>0</v>
-      </c>
-      <c r="S44" t="b">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="2">
-        <v>43159</v>
-      </c>
-      <c r="I45" s="2">
-        <v>43195</v>
-      </c>
-      <c r="J45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K45" t="s">
-        <v>76</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0.01</v>
-      </c>
-      <c r="O45">
-        <v>0.01</v>
-      </c>
-      <c r="P45" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q45" t="b">
-        <v>0</v>
-      </c>
-      <c r="R45" t="b">
-        <v>0</v>
-      </c>
-      <c r="S45" t="b">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="2">
-        <v>43073</v>
-      </c>
-      <c r="I46" s="2">
-        <v>43089</v>
-      </c>
-      <c r="J46" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0.01</v>
-      </c>
-      <c r="O46">
-        <v>0.01</v>
-      </c>
-      <c r="P46" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-      <c r="R46" t="b">
-        <v>0</v>
-      </c>
-      <c r="S46" t="b">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>-0.57330000000000003</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="2">
-        <v>43207</v>
-      </c>
-      <c r="I47" s="2">
-        <v>43227</v>
-      </c>
-      <c r="J47" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0.01</v>
-      </c>
-      <c r="O47">
-        <v>0.01</v>
-      </c>
-      <c r="P47" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-      <c r="R47" t="b">
-        <v>0</v>
-      </c>
-      <c r="S47" t="b">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>-0.33429999999999999</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43073</v>
-      </c>
-      <c r="I48" s="2">
-        <v>43089</v>
-      </c>
-      <c r="J48" t="s">
-        <v>76</v>
-      </c>
-      <c r="K48" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0.01</v>
-      </c>
-      <c r="O48">
-        <v>0.01</v>
-      </c>
-      <c r="P48" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q48" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" t="b">
-        <v>0</v>
-      </c>
-      <c r="S48" t="b">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>-0.57330000000000003</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43207</v>
-      </c>
-      <c r="I49" s="2">
-        <v>43227</v>
-      </c>
-      <c r="J49" t="s">
-        <v>76</v>
-      </c>
-      <c r="K49" t="s">
-        <v>76</v>
-      </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0.01</v>
-      </c>
-      <c r="O49">
-        <v>0.01</v>
-      </c>
-      <c r="P49" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q49" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49" t="b">
-        <v>0</v>
-      </c>
-      <c r="S49" t="b">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>-0.33429999999999999</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="2">
-        <v>43073</v>
-      </c>
-      <c r="I50" s="2">
-        <v>43089</v>
-      </c>
-      <c r="J50" t="s">
-        <v>76</v>
-      </c>
-      <c r="K50" t="s">
-        <v>76</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0.01</v>
-      </c>
-      <c r="O50">
-        <v>0.01</v>
-      </c>
-      <c r="P50" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q50" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" t="b">
-        <v>0</v>
-      </c>
-      <c r="S50" t="b">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>-0.57330000000000003</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="2">
-        <v>43207</v>
-      </c>
-      <c r="I51" s="2">
-        <v>43227</v>
-      </c>
-      <c r="J51" t="s">
-        <v>76</v>
-      </c>
-      <c r="K51" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0.01</v>
-      </c>
-      <c r="O51">
-        <v>0.01</v>
-      </c>
-      <c r="P51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-      <c r="R51" t="b">
-        <v>0</v>
-      </c>
-      <c r="S51" t="b">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>-0.33429999999999999</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>28</v>
-      </c>
-      <c r="C52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43158</v>
-      </c>
-      <c r="I52" s="2">
-        <v>43208</v>
-      </c>
-      <c r="J52" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52" t="s">
-        <v>76</v>
-      </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0.01</v>
-      </c>
-      <c r="O52">
-        <v>0.01</v>
-      </c>
-      <c r="P52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q52" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" t="b">
-        <v>0</v>
-      </c>
-      <c r="S52" t="b">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>-3.0999999999999999E-3</v>
-      </c>
-      <c r="W52">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="X52">
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="Y52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I53" s="2">
-        <v>43208</v>
-      </c>
-      <c r="J53" t="s">
-        <v>76</v>
-      </c>
-      <c r="K53" t="s">
-        <v>76</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0.01</v>
-      </c>
-      <c r="O53">
-        <v>0.01</v>
-      </c>
-      <c r="P53" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" t="b">
-        <v>0</v>
-      </c>
-      <c r="S53" t="b">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>-0.38950000000000001</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>30</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I54" s="2">
-        <v>43224</v>
-      </c>
-      <c r="J54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K54" t="s">
-        <v>76</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0.01</v>
-      </c>
-      <c r="O54">
-        <v>0.01</v>
-      </c>
-      <c r="P54" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>0</v>
-      </c>
-      <c r="R54" t="b">
-        <v>0</v>
-      </c>
-      <c r="S54" t="b">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>-0.3266</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y54">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="2">
-        <v>43147</v>
-      </c>
-      <c r="I55" s="2">
-        <v>43224</v>
-      </c>
-      <c r="J55" t="s">
-        <v>76</v>
-      </c>
-      <c r="K55" t="s">
-        <v>76</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0.01</v>
-      </c>
-      <c r="O55">
-        <v>0.01</v>
-      </c>
-      <c r="P55" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q55" t="b">
-        <v>0</v>
-      </c>
-      <c r="R55" t="b">
-        <v>0</v>
-      </c>
-      <c r="S55" t="b">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>-0.31769999999999998</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I56" s="2">
-        <v>43208</v>
-      </c>
-      <c r="J56" t="s">
-        <v>76</v>
-      </c>
-      <c r="K56" t="s">
-        <v>76</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0.01</v>
-      </c>
-      <c r="O56">
-        <v>0.01</v>
-      </c>
-      <c r="P56" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>0</v>
-      </c>
-      <c r="R56" t="b">
-        <v>0</v>
-      </c>
-      <c r="S56" t="b">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>-0.38950000000000001</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y56">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>30</v>
-      </c>
-      <c r="C57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I57" s="2">
-        <v>43224</v>
-      </c>
-      <c r="J57" t="s">
-        <v>76</v>
-      </c>
-      <c r="K57" t="s">
-        <v>76</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0.01</v>
-      </c>
-      <c r="O57">
-        <v>0.01</v>
-      </c>
-      <c r="P57" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q57" t="b">
-        <v>0</v>
-      </c>
-      <c r="R57" t="b">
-        <v>0</v>
-      </c>
-      <c r="S57" t="b">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>-0.3266</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y57">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="2">
-        <v>43147</v>
-      </c>
-      <c r="I58" s="2">
-        <v>43224</v>
-      </c>
-      <c r="J58" t="s">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s">
-        <v>76</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0.01</v>
-      </c>
-      <c r="O58">
-        <v>0.01</v>
-      </c>
-      <c r="P58" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q58" t="b">
-        <v>0</v>
-      </c>
-      <c r="R58" t="b">
-        <v>0</v>
-      </c>
-      <c r="S58" t="b">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>-0.31769999999999998</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y58">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I59" s="2">
-        <v>43208</v>
-      </c>
-      <c r="J59" t="s">
-        <v>76</v>
-      </c>
-      <c r="K59" t="s">
-        <v>76</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0.01</v>
-      </c>
-      <c r="O59">
-        <v>0.01</v>
-      </c>
-      <c r="P59" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q59" t="b">
-        <v>0</v>
-      </c>
-      <c r="R59" t="b">
-        <v>0</v>
-      </c>
-      <c r="S59" t="b">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>-0.38950000000000001</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y59">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I60" s="2">
-        <v>43224</v>
-      </c>
-      <c r="J60" t="s">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s">
-        <v>76</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0.01</v>
-      </c>
-      <c r="O60">
-        <v>0.01</v>
-      </c>
-      <c r="P60" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q60" t="b">
-        <v>0</v>
-      </c>
-      <c r="R60" t="b">
-        <v>0</v>
-      </c>
-      <c r="S60" t="b">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>-0.3266</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y60">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="2">
-        <v>43147</v>
-      </c>
-      <c r="I61" s="2">
-        <v>43224</v>
-      </c>
-      <c r="J61" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s">
-        <v>76</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0.01</v>
-      </c>
-      <c r="O61">
-        <v>0.01</v>
-      </c>
-      <c r="P61" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>0</v>
-      </c>
-      <c r="R61" t="b">
-        <v>0</v>
-      </c>
-      <c r="S61" t="b">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>-0.31769999999999998</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y61">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
